--- a/SalesM003-UserApply/SalesM003/Customer_Name_Change_Rule.xlsx
+++ b/SalesM003-UserApply/SalesM003/Customer_Name_Change_Rule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>M-广州市日川智能机电科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊华电子科技（上海）有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,6 +474,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SalesM003-UserApply/SalesM003/Customer_Name_Change_Rule.xlsx
+++ b/SalesM003-UserApply/SalesM003/Customer_Name_Change_Rule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>珊华电子科技（上海）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-珊华电子科技(上海）有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,6 +486,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SalesM003-UserApply/SalesM003/Customer_Name_Change_Rule.xlsx
+++ b/SalesM003-UserApply/SalesM003/Customer_Name_Change_Rule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,22 @@
   </si>
   <si>
     <t>M-珊华电子科技(上海）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁安特数控技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-辽宁安特数控技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海策永自动化科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-上海策永自动化科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,6 +510,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
